--- a/DDF/Phase2/TY_03/TestData.xlsx
+++ b/DDF/Phase2/TY_03/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Bimbo Mobile\DDF\Phase2\TY_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Bimbo Mobile-TY\DDF\Phase2\TY_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseData" sheetId="1" r:id="rId1"/>
     <sheet name="Phase2.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Phase2.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -427,14 +428,36 @@
   </si>
   <si>
     <t>Enter the folio number</t>
+  </si>
+  <si>
+    <t>Sheet4</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>Do you want to save?</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>SP_TC_02</t>
+  </si>
+  <si>
+    <t>Choose the seller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -504,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,6 +563,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,7 +1090,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
@@ -1101,7 +1125,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1194,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -1205,7 +1229,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1584,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
@@ -1760,7 +1784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1768,7 +1792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>104</v>
       </c>
@@ -1776,7 +1800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>105</v>
       </c>
@@ -1784,7 +1808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>106</v>
       </c>
@@ -1792,7 +1816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>107</v>
       </c>
@@ -1800,7 +1824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>109</v>
       </c>
@@ -1808,7 +1832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>110</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>114</v>
       </c>
@@ -1824,7 +1848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>115</v>
       </c>
@@ -1832,14 +1856,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -1849,24 +1873,36 @@
       <c r="C28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="17">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>32</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>34</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -1874,7 +1910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -1882,7 +1918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43</v>
       </c>
@@ -1890,7 +1926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -1898,7 +1934,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>125</v>
       </c>
@@ -1906,7 +1942,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>129</v>
       </c>
@@ -1914,7 +1950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>130</v>
       </c>
@@ -1922,14 +1958,14 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>132</v>
       </c>
@@ -1938,10 +1974,66 @@
       </c>
       <c r="C39" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>